--- a/SSO/parameters_descope_7_4gsEq.xlsx
+++ b/SSO/parameters_descope_7_4gsEq.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19080" tabRatio="500" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="-33600" yWindow="0" windowWidth="33600" windowHeight="19080" tabRatio="500" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="sim_parameters" sheetId="5" r:id="rId1"/>
@@ -314,8 +314,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -338,7 +368,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="40" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -346,6 +376,21 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -353,6 +398,21 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1055,7 +1115,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1084,16 +1144,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-5.1929999999999996</v>
+        <v>20.72</v>
       </c>
       <c r="C2">
-        <v>-80.701999999999998</v>
+        <v>-156.26</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1101,16 +1161,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9.98E-2</v>
+        <v>-5.1929999999999996</v>
       </c>
       <c r="C3">
-        <v>40.262999999999998</v>
+        <v>-80.701999999999998</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1118,16 +1178,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-12.426</v>
+        <v>9.98E-2</v>
       </c>
       <c r="C4">
-        <v>130.863</v>
+        <v>40.262999999999998</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1135,16 +1195,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>20.72</v>
+        <v>-12.426</v>
       </c>
       <c r="C5">
-        <v>-156.26</v>
+        <v>130.863</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1762,7 +1822,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
